--- a/network_analysis_sandbox/data/staff_survey_data_03-21.xlsx
+++ b/network_analysis_sandbox/data/staff_survey_data_03-21.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian.calhoon\Documents\Github repos\methods-corner\network analysis sandbox\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian.calhoon\Documents\Github repos\methods-corner\network_analysis_sandbox\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA092B12-235B-4BCB-9E8F-9477EDB73BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A711798-A698-4C0A-B942-E0AF50DE980B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1481,7 +1481,15 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:N50" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:N50" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Education"/>
+        <filter val="SEA"/>
+        <filter val="Strategy, Evaluation and Analysis"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="12"/>
@@ -1802,10 +1810,10 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1950,7 +1958,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2066,7 +2074,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2176,7 +2184,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2217,7 +2225,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2255,7 +2263,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2293,7 +2301,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2331,7 +2339,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2513,7 +2521,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2577,7 +2585,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2612,7 +2620,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2644,7 +2652,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2728,7 +2736,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2816,7 +2824,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2840,7 +2848,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2882,7 +2890,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2926,7 +2934,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2966,7 +2974,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3008,7 +3016,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3048,7 +3056,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3092,7 +3100,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3136,7 +3144,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3176,7 +3184,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3218,7 +3226,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>36</v>
       </c>
@@ -3260,7 +3268,7 @@
       </c>
       <c r="N37" s="14"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3302,7 +3310,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>38</v>
       </c>
@@ -3346,7 +3354,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3386,7 +3394,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>40</v>
       </c>
@@ -3430,7 +3438,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3516,7 +3524,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3558,7 +3566,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>44</v>
       </c>
@@ -3602,7 +3610,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3620,7 +3628,7 @@
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3638,7 +3646,7 @@
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3656,7 +3664,7 @@
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3674,7 +3682,7 @@
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3742,6 +3750,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="40d8ad13-511a-48d0-b256-c18e41d2a91e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7eefbc81-8662-4c78-9f08-cc54d1ec6500">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC35E92825EF146AA8A0D3360749A89" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b9e5d9ca06c77cae9a71f1a3ccbfa3aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7eefbc81-8662-4c78-9f08-cc54d1ec6500" xmlns:ns3="40d8ad13-511a-48d0-b256-c18e41d2a91e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e6d5293887a11414ac0478f31eb1856" ns2:_="" ns3:_="">
     <xsd:import namespace="7eefbc81-8662-4c78-9f08-cc54d1ec6500"/>
@@ -3966,27 +3994,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DB23E84-8149-4FF7-99C3-5A1E9EC02443}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="40d8ad13-511a-48d0-b256-c18e41d2a91e"/>
+    <ds:schemaRef ds:uri="7eefbc81-8662-4c78-9f08-cc54d1ec6500"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="40d8ad13-511a-48d0-b256-c18e41d2a91e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7eefbc81-8662-4c78-9f08-cc54d1ec6500">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36346609-9049-4D56-96BC-F7F80A811FB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2EB9F0E-211F-4D68-932D-2DBAB95990C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4003,23 +4030,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36346609-9049-4D56-96BC-F7F80A811FB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DB23E84-8149-4FF7-99C3-5A1E9EC02443}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="40d8ad13-511a-48d0-b256-c18e41d2a91e"/>
-    <ds:schemaRef ds:uri="7eefbc81-8662-4c78-9f08-cc54d1ec6500"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/network_analysis_sandbox/data/staff_survey_data_03-21.xlsx
+++ b/network_analysis_sandbox/data/staff_survey_data_03-21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian.calhoon\Documents\Github repos\methods-corner\network_analysis_sandbox\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A711798-A698-4C0A-B942-E0AF50DE980B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF37A3C0-0C84-4CA3-B57D-21F10CFCA0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="417">
   <si>
     <t>ID</t>
   </si>
@@ -1285,6 +1285,9 @@
   </si>
   <si>
     <t>Analytic skill</t>
+  </si>
+  <si>
+    <t>Michelle Adams-Matson, Christine Canavan, Tim Reilly</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1316,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1326,8 +1329,14 @@
         <bgColor rgb="FF5B9BD5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1359,11 +1368,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1398,6 +1418,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1481,15 +1504,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:N50" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N50" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Education"/>
-        <filter val="SEA"/>
-        <filter val="Strategy, Evaluation and Analysis"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="12"/>
@@ -1810,10 +1824,10 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1958,7 +1972,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2071,10 +2085,12 @@
       <c r="L6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="17" t="s">
+        <v>416</v>
+      </c>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2184,7 +2200,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2225,7 +2241,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2263,7 +2279,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2301,7 +2317,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2339,7 +2355,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2521,7 +2537,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2585,7 +2601,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2620,7 +2636,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2652,7 +2668,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2736,7 +2752,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2824,7 +2840,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2848,7 +2864,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2890,7 +2906,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2934,7 +2950,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2974,7 +2990,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3016,7 +3032,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3056,7 +3072,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3100,7 +3116,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3144,7 +3160,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3184,7 +3200,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3226,7 +3242,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>36</v>
       </c>
@@ -3268,7 +3284,7 @@
       </c>
       <c r="N37" s="14"/>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3310,7 +3326,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>38</v>
       </c>
@@ -3354,7 +3370,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3394,7 +3410,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>40</v>
       </c>
@@ -3438,7 +3454,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3524,7 +3540,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3566,7 +3582,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>44</v>
       </c>
@@ -3610,7 +3626,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3628,7 +3644,7 @@
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3646,7 +3662,7 @@
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3664,7 +3680,7 @@
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3682,7 +3698,7 @@
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3750,26 +3766,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="40d8ad13-511a-48d0-b256-c18e41d2a91e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7eefbc81-8662-4c78-9f08-cc54d1ec6500">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC35E92825EF146AA8A0D3360749A89" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b9e5d9ca06c77cae9a71f1a3ccbfa3aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7eefbc81-8662-4c78-9f08-cc54d1ec6500" xmlns:ns3="40d8ad13-511a-48d0-b256-c18e41d2a91e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e6d5293887a11414ac0478f31eb1856" ns2:_="" ns3:_="">
     <xsd:import namespace="7eefbc81-8662-4c78-9f08-cc54d1ec6500"/>
@@ -3994,26 +3990,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DB23E84-8149-4FF7-99C3-5A1E9EC02443}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="40d8ad13-511a-48d0-b256-c18e41d2a91e"/>
-    <ds:schemaRef ds:uri="7eefbc81-8662-4c78-9f08-cc54d1ec6500"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36346609-9049-4D56-96BC-F7F80A811FB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="40d8ad13-511a-48d0-b256-c18e41d2a91e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7eefbc81-8662-4c78-9f08-cc54d1ec6500">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2EB9F0E-211F-4D68-932D-2DBAB95990C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4030,4 +4027,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36346609-9049-4D56-96BC-F7F80A811FB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DB23E84-8149-4FF7-99C3-5A1E9EC02443}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="40d8ad13-511a-48d0-b256-c18e41d2a91e"/>
+    <ds:schemaRef ds:uri="7eefbc81-8662-4c78-9f08-cc54d1ec6500"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/network_analysis_sandbox/data/staff_survey_data_03-21.xlsx
+++ b/network_analysis_sandbox/data/staff_survey_data_03-21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian.calhoon\Documents\Github repos\methods-corner\network_analysis_sandbox\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF37A3C0-0C84-4CA3-B57D-21F10CFCA0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142F0C38-FDFA-4F01-BD33-97E3BA8E210F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="428">
   <si>
     <t>ID</t>
   </si>
@@ -516,9 +516,6 @@
     <t xml:space="preserve">Expand AI knowledge </t>
   </si>
   <si>
-    <t>Other TDs</t>
-  </si>
-  <si>
     <t>HALLIE.POWELL@tetratech.com</t>
   </si>
   <si>
@@ -1272,22 +1269,58 @@
     <t>BD</t>
   </si>
   <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>Advanced</t>
-  </si>
-  <si>
-    <t>Mid</t>
-  </si>
-  <si>
-    <t>Expert</t>
-  </si>
-  <si>
-    <t>Analytic skill</t>
-  </si>
-  <si>
     <t>Michelle Adams-Matson, Christine Canavan, Tim Reilly</t>
+  </si>
+  <si>
+    <t>Betsy Bury, Tim Reilly, David Hinkle</t>
+  </si>
+  <si>
+    <t>Andrew Dicello, Tim Reilly, Ali Hayat</t>
+  </si>
+  <si>
+    <t>R, Stata, Excel</t>
+  </si>
+  <si>
+    <t>Dan Killian, Brian Calhoon, Carolyn Fonseca</t>
+  </si>
+  <si>
+    <t>Tim Reilly, David Hinkle, Carolyn Fonseca</t>
+  </si>
+  <si>
+    <t>Thomaz Alvares de Azevedo Lau, David Hinkle, Carolyn Fonseca</t>
+  </si>
+  <si>
+    <t>Gaelle Simon, Jennifer Gerst, Thomaz Alvares de Azevedo Lau</t>
+  </si>
+  <si>
+    <t>Jennifer Gerst, Tim Shifflett, Gaelle Simon</t>
+  </si>
+  <si>
+    <t>Tim Reilly, Dan Killian, Lisa Slifer-Mbacke</t>
+  </si>
+  <si>
+    <t>SEA reporting relationships</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>Peter Meyers</t>
+  </si>
+  <si>
+    <t>Sandra Shaban</t>
+  </si>
+  <si>
+    <t>Ali Hayat, Tim Reilly, Peter Meyers</t>
+  </si>
+  <si>
+    <t>Excel, Atlas.ti</t>
+  </si>
+  <si>
+    <t>Joseph Christoff, Gaelle Simon, Jennifer Gerst</t>
+  </si>
+  <si>
+    <t>Ali Hayat, Tim Reilly, Peter Mayers</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1536,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:N50" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:N48" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="12"/>
@@ -1821,13 +1854,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1904,7 +1937,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
@@ -1945,7 +1978,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -1983,10 +2016,10 @@
         <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>34</v>
@@ -2024,7 +2057,7 @@
         <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>7</v>
@@ -2065,7 +2098,7 @@
         <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>25</v>
@@ -2086,9 +2119,11 @@
         <v>57</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="N6" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -2101,7 +2136,7 @@
         <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>60</v>
@@ -2136,7 +2171,7 @@
         <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>25</v>
@@ -2177,7 +2212,7 @@
         <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>7</v>
@@ -2211,7 +2246,7 @@
         <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>86</v>
@@ -2252,7 +2287,7 @@
         <v>96</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>97</v>
@@ -2290,7 +2325,7 @@
         <v>106</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>97</v>
@@ -2328,7 +2363,7 @@
         <v>113</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>97</v>
@@ -2366,7 +2401,7 @@
         <v>122</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>123</v>
@@ -2404,7 +2439,7 @@
         <v>131</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>7</v>
@@ -2425,7 +2460,9 @@
         <v>136</v>
       </c>
       <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="N15" s="3" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -2438,7 +2475,7 @@
         <v>138</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>139</v>
@@ -2479,7 +2516,7 @@
         <v>148</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>25</v>
@@ -2494,7 +2531,9 @@
         <v>150</v>
       </c>
       <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="N17" s="3" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -2507,7 +2546,7 @@
         <v>152</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>25</v>
@@ -2534,7 +2573,7 @@
         <v>108</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>159</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
@@ -2542,35 +2581,35 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" t="s">
         <v>160</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -2578,62 +2617,66 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" t="s">
         <v>169</v>
       </c>
-      <c r="C20" t="s">
-        <v>170</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="M20" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" t="s">
         <v>174</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -2641,23 +2684,23 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="4"/>
@@ -2665,7 +2708,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="7"/>
       <c r="N22" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -2673,41 +2716,41 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="I23" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>91</v>
       </c>
       <c r="L23" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M23" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="M23" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="N23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -2715,38 +2758,38 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>68</v>
@@ -2757,43 +2800,43 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="N25" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -2801,43 +2844,43 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H26" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="N26" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -2845,13 +2888,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>233</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -2869,41 +2912,41 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>108</v>
       </c>
       <c r="K28" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="L28" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="M28" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="N28" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -2911,37 +2954,37 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>120</v>
       </c>
       <c r="J29" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="L29" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>120</v>
@@ -2955,39 +2998,39 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="M30" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="N30" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="N30" s="10" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -2995,41 +3038,41 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H31" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="J31" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="L31" s="4" t="s">
+      <c r="M31" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="N31" s="10" t="s">
         <v>267</v>
-      </c>
-      <c r="N31" s="10" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -3037,39 +3080,39 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>270</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="L32" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="M32" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="N32" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="N32" s="10" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -3077,43 +3120,43 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="L33" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="M33" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="N33" s="10" t="s">
         <v>288</v>
-      </c>
-      <c r="N33" s="10" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -3121,43 +3164,43 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="K34" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="L34" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="M34" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="M34" s="4" t="s">
-        <v>300</v>
-      </c>
       <c r="N34" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -3165,39 +3208,39 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="M35" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="M35" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="N35" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -3205,41 +3248,41 @@
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E36" s="13" t="s">
+      <c r="F36" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="G36" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="H36" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="G36" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="H36" s="13" t="s">
+      <c r="I36" s="13" t="s">
         <v>314</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>315</v>
       </c>
       <c r="J36" s="14"/>
       <c r="K36" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="L36" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="L36" s="13" t="s">
+      <c r="M36" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="M36" s="13" t="s">
-        <v>318</v>
-      </c>
       <c r="N36" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -3247,40 +3290,40 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="F37" s="13" t="s">
+      <c r="G37" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="H37" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="I37" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="J37" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="K37" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="K37" s="13" t="s">
+      <c r="L37" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="L37" s="13" t="s">
+      <c r="M37" s="13" t="s">
         <v>327</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>328</v>
       </c>
       <c r="N37" s="14"/>
     </row>
@@ -3289,41 +3332,41 @@
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>330</v>
-      </c>
       <c r="D38" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="H38" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="I38" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="J38" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="J38" s="13" t="s">
+      <c r="K38" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="K38" s="13" t="s">
+      <c r="L38" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="L38" s="13" t="s">
+      <c r="M38" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="M38" s="13" t="s">
+      <c r="N38" s="15" t="s">
         <v>337</v>
-      </c>
-      <c r="N38" s="15" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -3331,43 +3374,43 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="F39" s="13" t="s">
+      <c r="G39" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H39" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="G39" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="H39" s="13" t="s">
+      <c r="I39" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="I39" s="13" t="s">
+      <c r="J39" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="J39" s="13" t="s">
+      <c r="K39" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="K39" s="13" t="s">
+      <c r="L39" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="L39" s="13" t="s">
+      <c r="M39" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="M39" s="13" t="s">
+      <c r="N39" s="15" t="s">
         <v>346</v>
-      </c>
-      <c r="N39" s="15" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -3375,39 +3418,39 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="D40" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>349</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>350</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="H40" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="I40" s="13" t="s">
         <v>352</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>353</v>
       </c>
       <c r="J40" s="14"/>
       <c r="K40" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="L40" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="L40" s="13" t="s">
+      <c r="M40" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="M40" s="13" t="s">
+      <c r="N40" s="15" t="s">
         <v>356</v>
-      </c>
-      <c r="N40" s="15" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="41" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -3415,43 +3458,43 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E41" s="13" t="s">
+      <c r="F41" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="G41" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="H41" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="I41" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="J41" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="J41" s="13" t="s">
+      <c r="K41" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="K41" s="13" t="s">
+      <c r="L41" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="L41" s="13" t="s">
+      <c r="M41" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="M41" s="13" t="s">
+      <c r="N41" s="15" t="s">
         <v>368</v>
-      </c>
-      <c r="N41" s="15" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -3459,41 +3502,41 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>371</v>
-      </c>
       <c r="D42" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>186</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="H42" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="I42" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="J42" s="13" t="s">
         <v>374</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>375</v>
       </c>
       <c r="K42" s="13" t="s">
         <v>82</v>
       </c>
       <c r="L42" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M42" s="13" t="s">
         <v>146</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -3501,43 +3544,43 @@
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="D43" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>379</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>380</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G43" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H43" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="I43" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="I43" s="13" t="s">
+      <c r="J43" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="J43" s="13" t="s">
+      <c r="K43" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="K43" s="13" t="s">
+      <c r="L43" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="L43" s="13" t="s">
+      <c r="M43" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="M43" s="13" t="s">
+      <c r="N43" s="15" t="s">
         <v>387</v>
-      </c>
-      <c r="N43" s="15" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -3545,41 +3588,41 @@
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="D44" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" s="13" t="s">
         <v>390</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>391</v>
       </c>
       <c r="F44" s="14"/>
       <c r="G44" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="H44" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="I44" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="I44" s="13" t="s">
+      <c r="J44" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="J44" s="13" t="s">
+      <c r="K44" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="K44" s="13" t="s">
+      <c r="L44" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="L44" s="13" t="s">
+      <c r="M44" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="M44" s="13" t="s">
+      <c r="N44" s="15" t="s">
         <v>398</v>
-      </c>
-      <c r="N44" s="15" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -3587,25 +3630,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="D45" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E45" s="13" t="s">
+      <c r="F45" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="G45" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="H45" s="13" t="s">
         <v>404</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>405</v>
       </c>
       <c r="I45" s="13" t="s">
         <v>108</v>
@@ -3614,16 +3657,16 @@
         <v>108</v>
       </c>
       <c r="K45" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="L45" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="L45" s="13" t="s">
+      <c r="M45" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="M45" s="13" t="s">
+      <c r="N45" s="15" t="s">
         <v>408</v>
-      </c>
-      <c r="N45" s="15" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -3631,90 +3674,90 @@
         <v>45</v>
       </c>
       <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="12"/>
+      <c r="C46" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>191</v>
+      </c>
       <c r="E46" s="11"/>
-      <c r="F46" s="12"/>
+      <c r="F46" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
+      <c r="K46" s="12" t="s">
+        <v>413</v>
+      </c>
       <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M46" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="12"/>
+      <c r="C47" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>191</v>
+      </c>
       <c r="E47" s="11"/>
-      <c r="F47" s="12"/>
+      <c r="F47" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
+      <c r="K47" s="12" t="s">
+        <v>413</v>
+      </c>
       <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
+      <c r="M47" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12"/>
+      <c r="C48" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>191</v>
+      </c>
       <c r="E48" s="11"/>
-      <c r="F48" s="12"/>
+      <c r="F48" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
+      <c r="K48" s="12" t="s">
+        <v>425</v>
+      </c>
       <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
+      <c r="M48" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>424</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3727,37 +3770,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26178D6F-3254-4349-9CF3-F14635F351A8}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="B4:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>414</v>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3991,15 +4037,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="40d8ad13-511a-48d0-b256-c18e41d2a91e" xsi:nil="true"/>
@@ -4008,6 +4045,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4030,14 +4076,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36346609-9049-4D56-96BC-F7F80A811FB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DB23E84-8149-4FF7-99C3-5A1E9EC02443}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4046,4 +4084,12 @@
     <ds:schemaRef ds:uri="7eefbc81-8662-4c78-9f08-cc54d1ec6500"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36346609-9049-4D56-96BC-F7F80A811FB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/network_analysis_sandbox/data/staff_survey_data_03-21.xlsx
+++ b/network_analysis_sandbox/data/staff_survey_data_03-21.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian.calhoon\Documents\Github repos\methods-corner\network_analysis_sandbox\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142F0C38-FDFA-4F01-BD33-97E3BA8E210F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC23F82-078A-415F-8A3F-75F597ADD028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="SEA Reporting Relationships" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="437">
   <si>
     <t>ID</t>
   </si>
@@ -1299,21 +1299,12 @@
     <t>Tim Reilly, Dan Killian, Lisa Slifer-Mbacke</t>
   </si>
   <si>
-    <t>SEA reporting relationships</t>
-  </si>
-  <si>
     <t>Supervisor</t>
   </si>
   <si>
-    <t>Peter Meyers</t>
-  </si>
-  <si>
     <t>Sandra Shaban</t>
   </si>
   <si>
-    <t>Ali Hayat, Tim Reilly, Peter Meyers</t>
-  </si>
-  <si>
     <t>Excel, Atlas.ti</t>
   </si>
   <si>
@@ -1321,6 +1312,42 @@
   </si>
   <si>
     <t>Ali Hayat, Tim Reilly, Peter Mayers</t>
+  </si>
+  <si>
+    <t>Michelle Adams-Matson</t>
+  </si>
+  <si>
+    <t>Gaelle Simon</t>
+  </si>
+  <si>
+    <t>Christine Canavan</t>
+  </si>
+  <si>
+    <t>Jennifer Gerst</t>
+  </si>
+  <si>
+    <t>Betsy Bury</t>
+  </si>
+  <si>
+    <t>Andrew Dicello</t>
+  </si>
+  <si>
+    <t>Ali Hayat</t>
+  </si>
+  <si>
+    <t>Tim Shifflett</t>
+  </si>
+  <si>
+    <t>Lisa Slifer-Mbacke</t>
+  </si>
+  <si>
+    <t>Andy Griminger</t>
+  </si>
+  <si>
+    <t>Naeem Rasooly</t>
+  </si>
+  <si>
+    <t>Chip Temm</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1454,6 +1481,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1537,6 +1578,21 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:N48" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:N48" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Home office"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Education"/>
+        <filter val="SEA"/>
+        <filter val="Strategy, Evaluation and Analysis"/>
+        <filter val="Technical"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="12"/>
@@ -1856,11 +1912,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L35" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M48" sqref="M48"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2005,7 +2061,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2125,7 +2181,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2235,7 +2291,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2276,7 +2332,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2314,7 +2370,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2352,7 +2408,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2390,7 +2446,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2576,7 +2632,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2638,13 +2694,13 @@
         <v>172</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2679,7 +2735,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2711,7 +2767,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2753,7 +2809,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2795,7 +2851,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2839,7 +2895,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2883,7 +2939,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2907,7 +2963,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2949,7 +3005,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2993,7 +3049,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3033,7 +3089,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3075,7 +3131,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3115,7 +3171,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3159,7 +3215,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3203,7 +3259,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3243,7 +3299,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3285,7 +3341,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>36</v>
       </c>
@@ -3327,7 +3383,7 @@
       </c>
       <c r="N37" s="14"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3369,7 +3425,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>38</v>
       </c>
@@ -3413,7 +3469,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3453,7 +3509,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>40</v>
       </c>
@@ -3497,7 +3553,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3539,7 +3595,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>42</v>
       </c>
@@ -3583,7 +3639,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3625,7 +3681,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>44</v>
       </c>
@@ -3735,7 +3791,7 @@
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>191</v>
@@ -3749,11 +3805,11 @@
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L48" s="12"/>
       <c r="M48" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N48" s="12" t="s">
         <v>424</v>
@@ -3770,40 +3826,223 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26178D6F-3254-4349-9CF3-F14635F351A8}">
-  <dimension ref="B4:C8"/>
+  <dimension ref="B5:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>420</v>
-      </c>
-    </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>422</v>
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>24</v>
       </c>
+      <c r="C7" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>425</v>
+      </c>
+      <c r="C20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>426</v>
+      </c>
+      <c r="C21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>427</v>
+      </c>
+      <c r="C22" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>429</v>
+      </c>
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>430</v>
+      </c>
+      <c r="C27" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>431</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C29" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>433</v>
+      </c>
+      <c r="C30" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -3812,6 +4051,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="40d8ad13-511a-48d0-b256-c18e41d2a91e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7eefbc81-8662-4c78-9f08-cc54d1ec6500">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC35E92825EF146AA8A0D3360749A89" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b9e5d9ca06c77cae9a71f1a3ccbfa3aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7eefbc81-8662-4c78-9f08-cc54d1ec6500" xmlns:ns3="40d8ad13-511a-48d0-b256-c18e41d2a91e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e6d5293887a11414ac0478f31eb1856" ns2:_="" ns3:_="">
     <xsd:import namespace="7eefbc81-8662-4c78-9f08-cc54d1ec6500"/>
@@ -4036,17 +4286,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="40d8ad13-511a-48d0-b256-c18e41d2a91e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7eefbc81-8662-4c78-9f08-cc54d1ec6500">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4057,6 +4296,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DB23E84-8149-4FF7-99C3-5A1E9EC02443}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="40d8ad13-511a-48d0-b256-c18e41d2a91e"/>
+    <ds:schemaRef ds:uri="7eefbc81-8662-4c78-9f08-cc54d1ec6500"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2EB9F0E-211F-4D68-932D-2DBAB95990C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4075,17 +4325,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DB23E84-8149-4FF7-99C3-5A1E9EC02443}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="40d8ad13-511a-48d0-b256-c18e41d2a91e"/>
-    <ds:schemaRef ds:uri="7eefbc81-8662-4c78-9f08-cc54d1ec6500"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36346609-9049-4D56-96BC-F7F80A811FB3}">
   <ds:schemaRefs>
